--- a/gerencial-qoe/data/Gerencial_QOE.xlsx
+++ b/gerencial-qoe/data/Gerencial_QOE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpclarobr-my.sharepoint.com/personal/claudioney_junior_claro_com_br/Documents/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="8_{EE749BEA-F388-487D-95A5-6918DAAF4F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7638A86B-F61A-4DF7-B426-722B4FEE2388}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="8_{EE749BEA-F388-487D-95A5-6918DAAF4F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A5FCF9-ED2A-4891-B3D5-0A75B4FC3606}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D76A1F15-8A94-49E1-B737-B8C2AF7F95B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="560">
   <si>
     <t>Cidade</t>
   </si>
@@ -1670,9 +1670,6 @@
     <t>EIO40-1</t>
   </si>
   <si>
-    <t>VIPAkC-1</t>
-  </si>
-  <si>
     <t>SJOAAA-3</t>
   </si>
   <si>
@@ -1680,9 +1677,6 @@
   </si>
   <si>
     <t>SANAI-1</t>
-  </si>
-  <si>
-    <t>RBRAH-2</t>
   </si>
   <si>
     <t>EIO37-1</t>
@@ -1968,9 +1962,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1979,6 +1970,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -2103,15 +2097,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85C55F60-57C4-414A-AA8B-1689D6333C30}" name="Tabela22" displayName="Tabela22" ref="A1:G637" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:G637" xr:uid="{85C55F60-57C4-414A-AA8B-1689D6333C30}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85C55F60-57C4-414A-AA8B-1689D6333C30}" name="Tabela22" displayName="Tabela22" ref="A1:G635" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:G635" xr:uid="{85C55F60-57C4-414A-AA8B-1689D6333C30}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{639BF367-DE51-4A74-ADA9-D472F2D9764F}" name="Cidade"/>
     <tableColumn id="2" xr3:uid="{8DF6B053-619A-4D78-A9CC-BE81CC2528F0}" name="Motivo"/>
     <tableColumn id="3" xr3:uid="{8606A42E-A584-4AF4-A133-106471C9D117}" name="Node" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{57D81690-BA94-4BD4-8114-B4158BE6C0D1}" name="QOE ANTES"/>
     <tableColumn id="5" xr3:uid="{B9CF7E1A-A1BC-43E5-918C-1B49C2CDE4B7}" name="QOE DEP"/>
-    <tableColumn id="6" xr3:uid="{5BC42187-EEF5-4900-8550-D93D60B1BA74}" name="Data Execução" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{5BC42187-EEF5-4900-8550-D93D60B1BA74}" name="Data Execução" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{2FCC6E30-87A0-4F5D-8B31-B76E01BB5C33}" name="SETOR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2435,11 +2429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6230E5-4B8A-4487-B57A-18078694AEB5}">
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:H635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="H634" sqref="H634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13013,7 +13007,7 @@
         <v>310</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D442" s="33">
         <v>86</v>
@@ -13109,7 +13103,7 @@
         <v>108</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D446" s="33">
         <v>60</v>
@@ -14309,7 +14303,7 @@
         <v>541</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D496" s="33">
         <v>84</v>
@@ -14597,7 +14591,7 @@
         <v>540</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D508" s="33">
         <v>90</v>
@@ -15869,7 +15863,7 @@
         <v>244</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D561" s="33">
         <v>70</v>
@@ -15893,7 +15887,7 @@
         <v>244</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D562" s="33">
         <v>69</v>
@@ -15917,7 +15911,7 @@
         <v>244</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D563" s="33">
         <v>76</v>
@@ -15941,7 +15935,7 @@
         <v>244</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D564" s="33">
         <v>78</v>
@@ -15965,7 +15959,7 @@
         <v>244</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D565" s="33">
         <v>75</v>
@@ -16349,7 +16343,7 @@
         <v>244</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D581" s="33">
         <v>78</v>
@@ -16469,7 +16463,7 @@
         <v>244</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D586" s="33">
         <v>79</v>
@@ -16493,7 +16487,7 @@
         <v>244</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D587" s="33">
         <v>63</v>
@@ -16805,7 +16799,7 @@
         <v>244</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D600" s="33">
         <v>86</v>
@@ -17477,7 +17471,7 @@
         <v>244</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D628" s="33">
         <v>82</v>
@@ -17501,7 +17495,7 @@
         <v>244</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D629" s="33">
         <v>71</v>
@@ -17525,7 +17519,7 @@
         <v>244</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D630" s="33">
         <v>69</v>
@@ -17606,7 +17600,7 @@
         <v>81</v>
       </c>
       <c r="F633" s="36">
-        <v>46074</v>
+        <v>46043</v>
       </c>
       <c r="G633" s="2" t="s">
         <v>391</v>
@@ -17630,7 +17624,7 @@
         <v>95</v>
       </c>
       <c r="F634" s="36">
-        <v>46075</v>
+        <v>46044</v>
       </c>
       <c r="G634" s="2" t="s">
         <v>391</v>
@@ -17639,81 +17633,33 @@
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" s="21" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B635" s="21" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>544</v>
+        <v>325</v>
       </c>
       <c r="D635" s="33">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E635" s="33">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F635" s="36">
-        <v>46375</v>
+        <v>46044</v>
       </c>
       <c r="G635" s="2" t="s">
         <v>345</v>
       </c>
       <c r="H635" s="35"/>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A636" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B636" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C636" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D636" s="33">
-        <v>79</v>
-      </c>
-      <c r="E636" s="33">
-        <v>66</v>
-      </c>
-      <c r="F636" s="36">
-        <v>46378</v>
-      </c>
-      <c r="G636" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H636" s="35"/>
-    </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A637" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B637" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C637" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="D637" s="33">
-        <v>75</v>
-      </c>
-      <c r="E637" s="33">
-        <v>82</v>
-      </c>
-      <c r="F637" s="36">
-        <v>46382</v>
-      </c>
-      <c r="G637" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H637" s="35"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="C341:C348 C357:C358">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E637">
+  <conditionalFormatting sqref="D1:E635">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="39"/>
